--- a/MSc_Background/MSc Articles.xlsx
+++ b/MSc_Background/MSc Articles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SyR-e" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Number</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Apache License, Version 2.0</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
     <t>Design of Synchronous Reluctance Motors with Multi-Objective Optimization Algorithms</t>
   </si>
   <si>
@@ -123,6 +120,18 @@
   </si>
   <si>
     <t>The Articles, related to Synchronous Reluctance Machines</t>
+  </si>
+  <si>
+    <t>Adding the Notes</t>
+  </si>
+  <si>
+    <t>Approximate Date to Finish</t>
+  </si>
+  <si>
+    <t>March 20,2016</t>
+  </si>
+  <si>
+    <t>March 27,2016</t>
   </si>
 </sst>
 </file>
@@ -207,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -269,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,13 +296,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -310,35 +307,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -657,30 +661,38 @@
     <col min="2" max="2" width="62.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="21.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -688,149 +700,173 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
         <v>2013</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D5" s="22"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>2014</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D6" s="22"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="5">
         <v>2014</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D7" s="22"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>2014</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D8" s="22"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>2014</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D9" s="22"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>2014</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D10" s="22"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>2010</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D11" s="22"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="5">
         <v>2010</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D12" s="22"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>17</v>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>2007</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -843,199 +879,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="17"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+    <row r="1" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="E2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="16">
         <v>2011</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2011</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="B14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
